--- a/InputData/indst/PERAC/Process Emissions Reductions and Costs.xlsx
+++ b/InputData/indst/PERAC/Process Emissions Reductions and Costs.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC (updated)\InputData\indst\PERAC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D2E776-C144-4900-BBDB-0F15ABE1BBE5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="21075" windowHeight="10800"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="21072" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>Global Mitigation of Non-CO2 Greenhouse Gases: 2010 – 2030</t>
   </si>
@@ -270,12 +283,18 @@
   </si>
   <si>
     <t>PERAC Potential Perc Reduction in Proc Emis from Cement</t>
+  </si>
+  <si>
+    <t>Notes for AB:</t>
+  </si>
+  <si>
+    <t>Most adjustments are done in Step4; 'Mass CO2e Avoidable by Marginal Cost.xlsx', therefore 'Policy Assingment to Cost Tier.xlsx' is not changed from CAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,7 +376,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -365,6 +384,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -413,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +468,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,6 +520,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,33 +712,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="100.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="100.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -693,33 +751,33 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -727,32 +785,32 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
@@ -760,35 +818,35 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
@@ -796,32 +854,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>42</v>
       </c>
@@ -829,177 +887,177 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" s="10">
         <v>2010</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -1007,7 +1065,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -1015,7 +1073,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -1023,7 +1081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>67</v>
       </c>
@@ -1031,7 +1089,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -1039,7 +1097,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>69</v>
       </c>
@@ -1047,7 +1105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -1055,7 +1113,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -1063,53 +1121,63 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B22" r:id="rId3"/>
-    <hyperlink ref="B29" r:id="rId4"/>
-    <hyperlink ref="B36" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B29" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B36" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
